--- a/Code/Wind Direction Averaging Around North2.xlsx
+++ b/Code/Wind Direction Averaging Around North2.xlsx
@@ -16,23 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>a</t>
+    <t>wind_dir[0]</t>
   </si>
   <si>
-    <t>b</t>
+    <t>wind_dir[1]</t>
   </si>
   <si>
-    <t>c</t>
+    <t>wind_dir[2]</t>
+  </si>
+  <si>
+    <t>wind_dir[3]</t>
+  </si>
+  <si>
+    <t>wind_dir_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,12 +71,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,305 +386,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="6" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B2" s="1">
-        <v>315</v>
-      </c>
-      <c r="C2" s="2">
-        <f>IF((A2-B2)&lt;180, (A2+B2)/2,MOD(A2+(((B2+360)-A2)/2),360))</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B3" s="1">
-        <f>MOD(B2+5,360)</f>
-        <v>320</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <f>IF(E7 &lt; 0, E7 + 360, E7)</f>
+        <v>9.4941188262811451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>RADIANS(A2)</f>
+        <v>6.2308254296197561</v>
+      </c>
+      <c r="B3" s="2">
+        <f>RADIANS(B2)</f>
+        <v>0.22689280275926285</v>
       </c>
       <c r="C3" s="2">
-        <f>IF((A3-B3)&lt;180, (A3+B3)/2,MOD(A3+(((B3+360)-A3)/2),360))</f>
-        <v>332.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">MOD(B3+5,360)</f>
-        <v>325</v>
-      </c>
-      <c r="C4" s="2">
-        <f>IF((A4-B4)&lt;180, (A4+B4)/2,MOD(A4+(((B4+360)-A4)/2),360))</f>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="C5" s="2">
-        <f>IF((A5-B5)&lt;180, (A5+B5)/2,MOD(A5+(((B5+360)-A5)/2),360))</f>
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="C6" s="2">
-        <f>IF((A6-B6)&lt;180, (A6+B6)/2,MOD(A6+(((B6+360)-A6)/2),360))</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:C11" si="1">IF((A7-B7)&lt;180, (A7+B7)/2,MOD(A7+(((B7+360)-A7)/2),360))</f>
-        <v>342.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>347.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>355</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>352.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <f>IF((A12-B12)&lt;180, (A12+B12)/2,MOD(A12+(((B12+360)-A12)/2),360))</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:C21" si="2">IF((A13-B13)&lt;180, (A13+B13)/2,MOD(A13+(((B13+360)-A13)/2),360))</f>
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>A2</f>
-        <v>345</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
+        <f>RADIANS(C2)</f>
+        <v>0.4014257279586958</v>
+      </c>
+      <c r="D3" s="2">
+        <f>RADIANS(D2)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f>SIN(A3)</f>
+        <v>-5.2335956242944369E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <f>SIN(B3)</f>
+        <v>0.224951054343865</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SIN(C3)</f>
+        <v>0.39073112848927377</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SIN(D3)</f>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM(A4:D4) / 4</f>
+        <v>0.16262549233446313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f>COS(A3)</f>
+        <v>0.99862953475457383</v>
+      </c>
+      <c r="B5" s="3">
+        <f>COS(B3)</f>
+        <v>0.97437006478523525</v>
+      </c>
+      <c r="C5" s="3">
+        <f>COS(C3)</f>
+        <v>0.92050485345244037</v>
+      </c>
+      <c r="D5" s="3">
+        <f>COS(D3)</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM(A5:D5) / 4</f>
+        <v>0.97242478777099883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <f>ATAN2(E5,E4)</f>
+        <v>0.16570363309418554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <f>DEGREES(E6)</f>
+        <v>9.4941188262811451</v>
       </c>
     </row>
   </sheetData>
